--- a/Code/Results/Cases/Case_3_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019550776793807</v>
+        <v>1.05245373078953</v>
       </c>
       <c r="D2">
-        <v>1.031362995401772</v>
+        <v>1.050498196273333</v>
       </c>
       <c r="E2">
-        <v>1.028906629660069</v>
+        <v>1.059044569277268</v>
       </c>
       <c r="F2">
-        <v>1.030556668669876</v>
+        <v>1.069366734880161</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048992298059154</v>
+        <v>1.044112387385348</v>
       </c>
       <c r="J2">
-        <v>1.041162047950531</v>
+        <v>1.057476251492177</v>
       </c>
       <c r="K2">
-        <v>1.042402024054137</v>
+        <v>1.053252306702465</v>
       </c>
       <c r="L2">
-        <v>1.039977419000091</v>
+        <v>1.061775147099514</v>
       </c>
       <c r="M2">
-        <v>1.041606102202439</v>
+        <v>1.072069432969611</v>
       </c>
       <c r="N2">
-        <v>1.042640617481605</v>
+        <v>1.058977989063518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025338642561416</v>
+        <v>1.053637334332198</v>
       </c>
       <c r="D3">
-        <v>1.03559602314515</v>
+        <v>1.051376228863262</v>
       </c>
       <c r="E3">
-        <v>1.03413976475199</v>
+        <v>1.060171072264902</v>
       </c>
       <c r="F3">
-        <v>1.036808242742971</v>
+        <v>1.070742972678491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050911017509293</v>
+        <v>1.044440393455141</v>
       </c>
       <c r="J3">
-        <v>1.045161601308535</v>
+        <v>1.058309206282339</v>
       </c>
       <c r="K3">
-        <v>1.045792837016077</v>
+        <v>1.053942628712608</v>
       </c>
       <c r="L3">
-        <v>1.044353689016956</v>
+        <v>1.062715011485217</v>
       </c>
       <c r="M3">
-        <v>1.046990858920008</v>
+        <v>1.073260438787629</v>
       </c>
       <c r="N3">
-        <v>1.046645850664105</v>
+        <v>1.059812126745023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028991512531904</v>
+        <v>1.054402877520854</v>
       </c>
       <c r="D4">
-        <v>1.038270312951437</v>
+        <v>1.051944032692034</v>
       </c>
       <c r="E4">
-        <v>1.037448088505357</v>
+        <v>1.060900039672356</v>
       </c>
       <c r="F4">
-        <v>1.040762349835908</v>
+        <v>1.071633988893224</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052112061058594</v>
+        <v>1.044651272194593</v>
       </c>
       <c r="J4">
-        <v>1.047681602463278</v>
+        <v>1.058847312792247</v>
       </c>
       <c r="K4">
-        <v>1.047927788970691</v>
+        <v>1.054388334168718</v>
       </c>
       <c r="L4">
-        <v>1.047114617702283</v>
+        <v>1.063322623792764</v>
       </c>
       <c r="M4">
-        <v>1.050392494347335</v>
+        <v>1.074031057717866</v>
       </c>
       <c r="N4">
-        <v>1.049169430509536</v>
+        <v>1.060350997427896</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030506074057743</v>
+        <v>1.054724635368148</v>
       </c>
       <c r="D5">
-        <v>1.0393797148694</v>
+        <v>1.052182656192069</v>
       </c>
       <c r="E5">
-        <v>1.0388210875738</v>
+        <v>1.061206509655586</v>
       </c>
       <c r="F5">
-        <v>1.042403864794988</v>
+        <v>1.072008693578355</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052607620801222</v>
+        <v>1.044739599723896</v>
       </c>
       <c r="J5">
-        <v>1.048725397968187</v>
+        <v>1.059073325370276</v>
       </c>
       <c r="K5">
-        <v>1.048811719877032</v>
+        <v>1.054575475133902</v>
       </c>
       <c r="L5">
-        <v>1.048259073002829</v>
+        <v>1.063577935357643</v>
       </c>
       <c r="M5">
-        <v>1.051803630764077</v>
+        <v>1.074355017825687</v>
       </c>
       <c r="N5">
-        <v>1.050214708323786</v>
+        <v>1.06057733096971</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030759165414983</v>
+        <v>1.054778655494706</v>
       </c>
       <c r="D6">
-        <v>1.03956513409067</v>
+        <v>1.052222717382886</v>
       </c>
       <c r="E6">
-        <v>1.039050598067254</v>
+        <v>1.061257968063565</v>
       </c>
       <c r="F6">
-        <v>1.042678291391434</v>
+        <v>1.072071615329744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052690288013922</v>
+        <v>1.044754411207038</v>
       </c>
       <c r="J6">
-        <v>1.048899758704734</v>
+        <v>1.059111261746782</v>
       </c>
       <c r="K6">
-        <v>1.048959353512318</v>
+        <v>1.054606883249049</v>
       </c>
       <c r="L6">
-        <v>1.048450299701885</v>
+        <v>1.063620795786465</v>
       </c>
       <c r="M6">
-        <v>1.05203948231628</v>
+        <v>1.074409411732313</v>
       </c>
       <c r="N6">
-        <v>1.050389316672578</v>
+        <v>1.060615321220222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029011831850693</v>
+        <v>1.054407177163229</v>
       </c>
       <c r="D7">
-        <v>1.038285194450378</v>
+        <v>1.051947221509306</v>
       </c>
       <c r="E7">
-        <v>1.037466503559731</v>
+        <v>1.06090413469004</v>
       </c>
       <c r="F7">
-        <v>1.040784364243869</v>
+        <v>1.071638995235565</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052118719097524</v>
+        <v>1.044652453711348</v>
       </c>
       <c r="J7">
-        <v>1.047695610214602</v>
+        <v>1.058850333596934</v>
       </c>
       <c r="K7">
-        <v>1.047939652842558</v>
+        <v>1.054390835672411</v>
       </c>
       <c r="L7">
-        <v>1.047129972868441</v>
+        <v>1.063326035782275</v>
       </c>
       <c r="M7">
-        <v>1.050411423208075</v>
+        <v>1.074035386518174</v>
       </c>
       <c r="N7">
-        <v>1.049183458153473</v>
+        <v>1.060354022522473</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021526530434868</v>
+        <v>1.052853804082321</v>
       </c>
       <c r="D8">
-        <v>1.032807371497352</v>
+        <v>1.050795002690708</v>
       </c>
       <c r="E8">
-        <v>1.030691825615442</v>
+        <v>1.059425267832802</v>
       </c>
       <c r="F8">
-        <v>1.032688906996056</v>
+        <v>1.069831739008546</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049649332571916</v>
+        <v>1.044223521081298</v>
       </c>
       <c r="J8">
-        <v>1.042528202584357</v>
+        <v>1.057757933462783</v>
       </c>
       <c r="K8">
-        <v>1.043560553103394</v>
+        <v>1.053485807443961</v>
       </c>
       <c r="L8">
-        <v>1.041471505915353</v>
+        <v>1.062092891840231</v>
       </c>
       <c r="M8">
-        <v>1.043443568876198</v>
+        <v>1.072471948656386</v>
       </c>
       <c r="N8">
-        <v>1.044008712211683</v>
+        <v>1.059260071054831</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007582045746341</v>
+        <v>1.050113969821969</v>
       </c>
       <c r="D9">
-        <v>1.022627996576703</v>
+        <v>1.048761997676939</v>
       </c>
       <c r="E9">
-        <v>1.018117831702023</v>
+        <v>1.056819594534166</v>
       </c>
       <c r="F9">
-        <v>1.017676951730663</v>
+        <v>1.066650842085205</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044971500536175</v>
+        <v>1.043457227138738</v>
       </c>
       <c r="J9">
-        <v>1.032869874397892</v>
+        <v>1.055826264655547</v>
       </c>
       <c r="K9">
-        <v>1.035364316375665</v>
+        <v>1.051883498579565</v>
       </c>
       <c r="L9">
-        <v>1.030923643064027</v>
+        <v>1.059915719071788</v>
       </c>
       <c r="M9">
-        <v>1.0304895982889</v>
+        <v>1.069716571201676</v>
       </c>
       <c r="N9">
-        <v>1.034336668091367</v>
+        <v>1.057325659056323</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.997705518489327</v>
+        <v>1.048285550140683</v>
       </c>
       <c r="D10">
-        <v>1.015440766601194</v>
+        <v>1.047404837029391</v>
       </c>
       <c r="E10">
-        <v>1.009246796933344</v>
+        <v>1.055082576239466</v>
       </c>
       <c r="F10">
-        <v>1.007091883556253</v>
+        <v>1.064532606785848</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041608580919113</v>
+        <v>1.042939302729622</v>
       </c>
       <c r="J10">
-        <v>1.026010467857036</v>
+        <v>1.054533895291822</v>
       </c>
       <c r="K10">
-        <v>1.029536719554808</v>
+        <v>1.05081017630435</v>
       </c>
       <c r="L10">
-        <v>1.023451080812132</v>
+        <v>1.05846135240616</v>
       </c>
       <c r="M10">
-        <v>1.021334261656855</v>
+        <v>1.067879266235344</v>
       </c>
       <c r="N10">
-        <v>1.027467520406439</v>
+        <v>1.056031454379866</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9932729223582798</v>
+        <v>1.047493354695147</v>
       </c>
       <c r="D11">
-        <v>1.01222179421692</v>
+        <v>1.046816728360977</v>
       </c>
       <c r="E11">
-        <v>1.005274502431953</v>
+        <v>1.054330430323906</v>
       </c>
       <c r="F11">
-        <v>1.002352711159286</v>
+        <v>1.063615916473064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040088202350402</v>
+        <v>1.042713353882109</v>
       </c>
       <c r="J11">
-        <v>1.022928258375896</v>
+        <v>1.053973179682862</v>
       </c>
       <c r="K11">
-        <v>1.026916848190436</v>
+        <v>1.050344190305014</v>
       </c>
       <c r="L11">
-        <v>1.020097630176524</v>
+        <v>1.057830884098362</v>
       </c>
       <c r="M11">
-        <v>1.017230394766111</v>
+        <v>1.067083574329227</v>
       </c>
       <c r="N11">
-        <v>1.024380933834301</v>
+        <v>1.055469942490425</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9916012796044554</v>
+        <v>1.047199023801694</v>
       </c>
       <c r="D12">
-        <v>1.011008961157948</v>
+        <v>1.046598210131615</v>
       </c>
       <c r="E12">
-        <v>1.003777880310337</v>
+        <v>1.054051047116832</v>
       </c>
       <c r="F12">
-        <v>1.000567179136211</v>
+        <v>1.063275492134962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039513227096002</v>
+        <v>1.042629172735515</v>
       </c>
       <c r="J12">
-        <v>1.021765391261412</v>
+        <v>1.053764736472306</v>
       </c>
       <c r="K12">
-        <v>1.025928243045346</v>
+        <v>1.050170916378651</v>
       </c>
       <c r="L12">
-        <v>1.018833058249827</v>
+        <v>1.057596590477187</v>
       </c>
       <c r="M12">
-        <v>1.015683520950226</v>
+        <v>1.066787997482015</v>
       </c>
       <c r="N12">
-        <v>1.023216415315132</v>
+        <v>1.055261203266601</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9919610219329289</v>
+        <v>1.047262162176364</v>
       </c>
       <c r="D13">
-        <v>1.011269913629495</v>
+        <v>1.046645086148847</v>
       </c>
       <c r="E13">
-        <v>1.004099891932912</v>
+        <v>1.054110975916907</v>
       </c>
       <c r="F13">
-        <v>1.000951352499486</v>
+        <v>1.063348510950394</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039637034704986</v>
+        <v>1.04264724136755</v>
       </c>
       <c r="J13">
-        <v>1.022015664558023</v>
+        <v>1.053809455896681</v>
       </c>
       <c r="K13">
-        <v>1.026141018827981</v>
+        <v>1.050208092658125</v>
       </c>
       <c r="L13">
-        <v>1.019105192297742</v>
+        <v>1.05764685224306</v>
       </c>
       <c r="M13">
-        <v>1.016016376031775</v>
+        <v>1.066851400728212</v>
       </c>
       <c r="N13">
-        <v>1.023467044028531</v>
+        <v>1.055305986197689</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9931352681834804</v>
+        <v>1.0474690267403</v>
       </c>
       <c r="D14">
-        <v>1.012121897979687</v>
+        <v>1.046798666978861</v>
       </c>
       <c r="E14">
-        <v>1.005151231165193</v>
+        <v>1.054307336487411</v>
       </c>
       <c r="F14">
-        <v>1.00220564341859</v>
+        <v>1.063587775372001</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040040887213472</v>
+        <v>1.042706400621163</v>
       </c>
       <c r="J14">
-        <v>1.022832509691378</v>
+        <v>1.053955953147607</v>
       </c>
       <c r="K14">
-        <v>1.026835451287543</v>
+        <v>1.05032987122865</v>
       </c>
       <c r="L14">
-        <v>1.019993494556703</v>
+        <v>1.057811519560941</v>
       </c>
       <c r="M14">
-        <v>1.017102998491938</v>
+        <v>1.067059142306232</v>
       </c>
       <c r="N14">
-        <v>1.024285049175669</v>
+        <v>1.055452691491514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9938553685271592</v>
+        <v>1.047596472915044</v>
       </c>
       <c r="D15">
-        <v>1.01264452435294</v>
+        <v>1.046893284092051</v>
       </c>
       <c r="E15">
-        <v>1.005796149861963</v>
+        <v>1.054428320297825</v>
       </c>
       <c r="F15">
-        <v>1.002975058694917</v>
+        <v>1.063735203967766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040288338641902</v>
+        <v>1.042742816954481</v>
       </c>
       <c r="J15">
-        <v>1.023333373381371</v>
+        <v>1.054046192569486</v>
       </c>
       <c r="K15">
-        <v>1.027261233662972</v>
+        <v>1.0504048783474</v>
       </c>
       <c r="L15">
-        <v>1.020538256074826</v>
+        <v>1.057912961951841</v>
       </c>
       <c r="M15">
-        <v>1.017769470085151</v>
+        <v>1.06718713583508</v>
       </c>
       <c r="N15">
-        <v>1.024786624149551</v>
+        <v>1.055543059063723</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9979962637580369</v>
+        <v>1.048338115268981</v>
       </c>
       <c r="D16">
-        <v>1.015652055547716</v>
+        <v>1.047443858316119</v>
       </c>
       <c r="E16">
-        <v>1.009507543407961</v>
+        <v>1.055132493408695</v>
       </c>
       <c r="F16">
-        <v>1.007402976114389</v>
+        <v>1.064593455210585</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041708081325454</v>
+        <v>1.042954262671012</v>
       </c>
       <c r="J16">
-        <v>1.026212566514963</v>
+        <v>1.054571084599022</v>
       </c>
       <c r="K16">
-        <v>1.029708478067568</v>
+        <v>1.050841076241675</v>
       </c>
       <c r="L16">
-        <v>1.023671052308685</v>
+        <v>1.058503179235222</v>
       </c>
       <c r="M16">
-        <v>1.021603552826256</v>
+        <v>1.067932070811341</v>
       </c>
       <c r="N16">
-        <v>1.027669906067641</v>
+        <v>1.056068696500146</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000550795776635</v>
+        <v>1.04880319829997</v>
       </c>
       <c r="D17">
-        <v>1.017509241341877</v>
+        <v>1.047789098023455</v>
       </c>
       <c r="E17">
-        <v>1.011799533730421</v>
+        <v>1.055574199781685</v>
       </c>
       <c r="F17">
-        <v>1.010137578116755</v>
+        <v>1.065131950666907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042581056609299</v>
+        <v>1.043086445621107</v>
       </c>
       <c r="J17">
-        <v>1.027987824157746</v>
+        <v>1.054900036937882</v>
       </c>
       <c r="K17">
-        <v>1.031217080392445</v>
+        <v>1.051114361456099</v>
       </c>
       <c r="L17">
-        <v>1.025603789787966</v>
+        <v>1.058873213491299</v>
       </c>
       <c r="M17">
-        <v>1.023970163367687</v>
+        <v>1.068399313215788</v>
       </c>
       <c r="N17">
-        <v>1.029447684779901</v>
+        <v>1.056398115989059</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002025886245668</v>
+        <v>1.049074427442299</v>
       </c>
       <c r="D18">
-        <v>1.01858227680503</v>
+        <v>1.047990427234811</v>
       </c>
       <c r="E18">
-        <v>1.013123870243519</v>
+        <v>1.055831839229621</v>
       </c>
       <c r="F18">
-        <v>1.011717725618011</v>
+        <v>1.065446096272931</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043084095640414</v>
+        <v>1.04316338324669</v>
       </c>
       <c r="J18">
-        <v>1.029012575910304</v>
+        <v>1.05509180216513</v>
       </c>
       <c r="K18">
-        <v>1.032087783794532</v>
+        <v>1.051273645461022</v>
       </c>
       <c r="L18">
-        <v>1.026719849586064</v>
+        <v>1.059088979059296</v>
       </c>
       <c r="M18">
-        <v>1.025337215439491</v>
+        <v>1.068671835739063</v>
       </c>
       <c r="N18">
-        <v>1.030473891797489</v>
+        <v>1.056590153544925</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002526372649338</v>
+        <v>1.049166901856676</v>
       </c>
       <c r="D19">
-        <v>1.018946451061781</v>
+        <v>1.048059067984361</v>
       </c>
       <c r="E19">
-        <v>1.013573348884453</v>
+        <v>1.055919687611959</v>
       </c>
       <c r="F19">
-        <v>1.01225403940938</v>
+        <v>1.065553220425954</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04325459240872</v>
+        <v>1.043189589453945</v>
       </c>
       <c r="J19">
-        <v>1.029360204017428</v>
+        <v>1.055157171031313</v>
       </c>
       <c r="K19">
-        <v>1.032383132132172</v>
+        <v>1.051327937101806</v>
       </c>
       <c r="L19">
-        <v>1.027098521179991</v>
+        <v>1.059162537865915</v>
       </c>
       <c r="M19">
-        <v>1.025801124816812</v>
+        <v>1.068764756903347</v>
       </c>
       <c r="N19">
-        <v>1.030822013576398</v>
+        <v>1.056655615242396</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000278274465614</v>
+        <v>1.048753304059604</v>
       </c>
       <c r="D20">
-        <v>1.017311048662588</v>
+        <v>1.047752061552738</v>
       </c>
       <c r="E20">
-        <v>1.011554932188255</v>
+        <v>1.05552680892357</v>
       </c>
       <c r="F20">
-        <v>1.00984573471687</v>
+        <v>1.065074170016051</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042488035120704</v>
+        <v>1.043072280449434</v>
       </c>
       <c r="J20">
-        <v>1.027798473311823</v>
+        <v>1.054864754554459</v>
       </c>
       <c r="K20">
-        <v>1.031056183987345</v>
+        <v>1.051085052818088</v>
       </c>
       <c r="L20">
-        <v>1.025397600085286</v>
+        <v>1.058833519482864</v>
       </c>
       <c r="M20">
-        <v>1.023717640217308</v>
+        <v>1.068349183792849</v>
       </c>
       <c r="N20">
-        <v>1.029258065034058</v>
+        <v>1.056362783500604</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.992790191859767</v>
+        <v>1.047408112351227</v>
       </c>
       <c r="D21">
-        <v>1.01187149306285</v>
+        <v>1.046753443150924</v>
       </c>
       <c r="E21">
-        <v>1.00484223368096</v>
+        <v>1.054249513284008</v>
       </c>
       <c r="F21">
-        <v>1.001836996698933</v>
+        <v>1.063517315908299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03992225040122</v>
+        <v>1.042688986703699</v>
       </c>
       <c r="J21">
-        <v>1.022592475891691</v>
+        <v>1.053912818021399</v>
       </c>
       <c r="K21">
-        <v>1.026631393521051</v>
+        <v>1.050294015617876</v>
       </c>
       <c r="L21">
-        <v>1.019732445521251</v>
+        <v>1.057763032180234</v>
       </c>
       <c r="M21">
-        <v>1.016783649991378</v>
+        <v>1.066997968200658</v>
       </c>
       <c r="N21">
-        <v>1.024044674500454</v>
+        <v>1.055409495108479</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9879354648568948</v>
+        <v>1.046561906220734</v>
       </c>
       <c r="D22">
-        <v>1.008351496729994</v>
+        <v>1.046125175395483</v>
       </c>
       <c r="E22">
-        <v>1.000498592798188</v>
+        <v>1.053446410113629</v>
       </c>
       <c r="F22">
-        <v>0.9966548101907979</v>
+        <v>1.062538893980068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038249463941441</v>
+        <v>1.042446526647155</v>
       </c>
       <c r="J22">
-        <v>1.019214469801378</v>
+        <v>1.05331332227867</v>
       </c>
       <c r="K22">
-        <v>1.023759304691529</v>
+        <v>1.049795582559542</v>
       </c>
       <c r="L22">
-        <v>1.016060178934515</v>
+        <v>1.057089339224466</v>
       </c>
       <c r="M22">
-        <v>1.012292828502808</v>
+        <v>1.066148280059126</v>
       </c>
       <c r="N22">
-        <v>1.020661871254029</v>
+        <v>1.054809148013033</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9905235785704893</v>
+        <v>1.04701053775426</v>
       </c>
       <c r="D23">
-        <v>1.010227384853296</v>
+        <v>1.046458269962526</v>
       </c>
       <c r="E23">
-        <v>1.002813426700473</v>
+        <v>1.053872152517017</v>
       </c>
       <c r="F23">
-        <v>0.9994165429864579</v>
+        <v>1.063057533750206</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039142099784279</v>
+        <v>1.042575198686522</v>
       </c>
       <c r="J23">
-        <v>1.021015566757705</v>
+        <v>1.053631219289676</v>
       </c>
       <c r="K23">
-        <v>1.025290738875414</v>
+        <v>1.050059913779449</v>
       </c>
       <c r="L23">
-        <v>1.018017829819127</v>
+        <v>1.057446537395383</v>
       </c>
       <c r="M23">
-        <v>1.014686487422014</v>
+        <v>1.066598728498346</v>
       </c>
       <c r="N23">
-        <v>1.022465525974623</v>
+        <v>1.055127496474258</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000401461108887</v>
+        <v>1.048775849260403</v>
       </c>
       <c r="D24">
-        <v>1.017400634933962</v>
+        <v>1.047768796873001</v>
       </c>
       <c r="E24">
-        <v>1.011665495750588</v>
+        <v>1.055548222813173</v>
       </c>
       <c r="F24">
-        <v>1.00997765209901</v>
+        <v>1.065100278448853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042530086497174</v>
+        <v>1.043078681582528</v>
       </c>
       <c r="J24">
-        <v>1.027884065869086</v>
+        <v>1.054880697475322</v>
       </c>
       <c r="K24">
-        <v>1.031128914625943</v>
+        <v>1.051098296496256</v>
       </c>
       <c r="L24">
-        <v>1.025490803081641</v>
+        <v>1.058851455709854</v>
       </c>
       <c r="M24">
-        <v>1.023831785705878</v>
+        <v>1.068371835157934</v>
       </c>
       <c r="N24">
-        <v>1.02934377914257</v>
+        <v>1.056378749062244</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011283554574699</v>
+        <v>1.050822602260819</v>
       </c>
       <c r="D25">
-        <v>1.025326609068662</v>
+        <v>1.049287896485708</v>
       </c>
       <c r="E25">
-        <v>1.021449823810035</v>
+        <v>1.057493199760286</v>
       </c>
       <c r="F25">
-        <v>1.021653719054924</v>
+        <v>1.067472753617938</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04622194859545</v>
+        <v>1.043656575035095</v>
       </c>
       <c r="J25">
-        <v>1.035437058966247</v>
+        <v>1.056326451108448</v>
       </c>
       <c r="K25">
-        <v>1.037544084269411</v>
+        <v>1.052298631850313</v>
       </c>
       <c r="L25">
-        <v>1.033724040279971</v>
+        <v>1.060479078605774</v>
       </c>
       <c r="M25">
-        <v>1.033924937658452</v>
+        <v>1.070428961840196</v>
       </c>
       <c r="N25">
-        <v>1.036907498356269</v>
+        <v>1.05782655583136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05245373078953</v>
+        <v>1.019550776793807</v>
       </c>
       <c r="D2">
-        <v>1.050498196273333</v>
+        <v>1.031362995401771</v>
       </c>
       <c r="E2">
-        <v>1.059044569277268</v>
+        <v>1.028906629660069</v>
       </c>
       <c r="F2">
-        <v>1.069366734880161</v>
+        <v>1.030556668669876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044112387385348</v>
+        <v>1.048992298059154</v>
       </c>
       <c r="J2">
-        <v>1.057476251492177</v>
+        <v>1.04116204795053</v>
       </c>
       <c r="K2">
-        <v>1.053252306702465</v>
+        <v>1.042402024054137</v>
       </c>
       <c r="L2">
-        <v>1.061775147099514</v>
+        <v>1.03997741900009</v>
       </c>
       <c r="M2">
-        <v>1.072069432969611</v>
+        <v>1.041606102202438</v>
       </c>
       <c r="N2">
-        <v>1.058977989063518</v>
+        <v>1.042640617481604</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053637334332198</v>
+        <v>1.025338642561414</v>
       </c>
       <c r="D3">
-        <v>1.051376228863262</v>
+        <v>1.03559602314515</v>
       </c>
       <c r="E3">
-        <v>1.060171072264902</v>
+        <v>1.034139764751989</v>
       </c>
       <c r="F3">
-        <v>1.070742972678491</v>
+        <v>1.03680824274297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044440393455141</v>
+        <v>1.050911017509292</v>
       </c>
       <c r="J3">
-        <v>1.058309206282339</v>
+        <v>1.045161601308534</v>
       </c>
       <c r="K3">
-        <v>1.053942628712608</v>
+        <v>1.045792837016076</v>
       </c>
       <c r="L3">
-        <v>1.062715011485217</v>
+        <v>1.044353689016954</v>
       </c>
       <c r="M3">
-        <v>1.073260438787629</v>
+        <v>1.046990858920007</v>
       </c>
       <c r="N3">
-        <v>1.059812126745023</v>
+        <v>1.046645850664104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054402877520854</v>
+        <v>1.028991512531904</v>
       </c>
       <c r="D4">
-        <v>1.051944032692034</v>
+        <v>1.038270312951438</v>
       </c>
       <c r="E4">
-        <v>1.060900039672356</v>
+        <v>1.037448088505357</v>
       </c>
       <c r="F4">
-        <v>1.071633988893224</v>
+        <v>1.040762349835909</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044651272194593</v>
+        <v>1.052112061058594</v>
       </c>
       <c r="J4">
-        <v>1.058847312792247</v>
+        <v>1.047681602463279</v>
       </c>
       <c r="K4">
-        <v>1.054388334168718</v>
+        <v>1.047927788970692</v>
       </c>
       <c r="L4">
-        <v>1.063322623792764</v>
+        <v>1.047114617702283</v>
       </c>
       <c r="M4">
-        <v>1.074031057717866</v>
+        <v>1.050392494347335</v>
       </c>
       <c r="N4">
-        <v>1.060350997427896</v>
+        <v>1.049169430509536</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054724635368148</v>
+        <v>1.030506074057744</v>
       </c>
       <c r="D5">
-        <v>1.052182656192069</v>
+        <v>1.039379714869402</v>
       </c>
       <c r="E5">
-        <v>1.061206509655586</v>
+        <v>1.038821087573801</v>
       </c>
       <c r="F5">
-        <v>1.072008693578355</v>
+        <v>1.04240386479499</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044739599723896</v>
+        <v>1.052607620801222</v>
       </c>
       <c r="J5">
-        <v>1.059073325370276</v>
+        <v>1.048725397968189</v>
       </c>
       <c r="K5">
-        <v>1.054575475133902</v>
+        <v>1.048811719877033</v>
       </c>
       <c r="L5">
-        <v>1.063577935357643</v>
+        <v>1.048259073002831</v>
       </c>
       <c r="M5">
-        <v>1.074355017825687</v>
+        <v>1.051803630764079</v>
       </c>
       <c r="N5">
-        <v>1.06057733096971</v>
+        <v>1.050214708323788</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054778655494706</v>
+        <v>1.030759165414983</v>
       </c>
       <c r="D6">
-        <v>1.052222717382886</v>
+        <v>1.03956513409067</v>
       </c>
       <c r="E6">
-        <v>1.061257968063565</v>
+        <v>1.039050598067255</v>
       </c>
       <c r="F6">
-        <v>1.072071615329744</v>
+        <v>1.042678291391435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044754411207038</v>
+        <v>1.052690288013922</v>
       </c>
       <c r="J6">
-        <v>1.059111261746782</v>
+        <v>1.048899758704734</v>
       </c>
       <c r="K6">
-        <v>1.054606883249049</v>
+        <v>1.048959353512318</v>
       </c>
       <c r="L6">
-        <v>1.063620795786465</v>
+        <v>1.048450299701885</v>
       </c>
       <c r="M6">
-        <v>1.074409411732313</v>
+        <v>1.052039482316281</v>
       </c>
       <c r="N6">
-        <v>1.060615321220222</v>
+        <v>1.050389316672579</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054407177163229</v>
+        <v>1.029011831850692</v>
       </c>
       <c r="D7">
-        <v>1.051947221509306</v>
+        <v>1.038285194450378</v>
       </c>
       <c r="E7">
-        <v>1.06090413469004</v>
+        <v>1.03746650355973</v>
       </c>
       <c r="F7">
-        <v>1.071638995235565</v>
+        <v>1.040784364243869</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044652453711348</v>
+        <v>1.052118719097524</v>
       </c>
       <c r="J7">
-        <v>1.058850333596934</v>
+        <v>1.047695610214601</v>
       </c>
       <c r="K7">
-        <v>1.054390835672411</v>
+        <v>1.047939652842558</v>
       </c>
       <c r="L7">
-        <v>1.063326035782275</v>
+        <v>1.04712997286844</v>
       </c>
       <c r="M7">
-        <v>1.074035386518174</v>
+        <v>1.050411423208074</v>
       </c>
       <c r="N7">
-        <v>1.060354022522473</v>
+        <v>1.049183458153472</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052853804082321</v>
+        <v>1.021526530434867</v>
       </c>
       <c r="D8">
-        <v>1.050795002690708</v>
+        <v>1.032807371497352</v>
       </c>
       <c r="E8">
-        <v>1.059425267832802</v>
+        <v>1.030691825615441</v>
       </c>
       <c r="F8">
-        <v>1.069831739008546</v>
+        <v>1.032688906996055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044223521081298</v>
+        <v>1.049649332571916</v>
       </c>
       <c r="J8">
-        <v>1.057757933462783</v>
+        <v>1.042528202584357</v>
       </c>
       <c r="K8">
-        <v>1.053485807443961</v>
+        <v>1.043560553103393</v>
       </c>
       <c r="L8">
-        <v>1.062092891840231</v>
+        <v>1.041471505915352</v>
       </c>
       <c r="M8">
-        <v>1.072471948656386</v>
+        <v>1.043443568876198</v>
       </c>
       <c r="N8">
-        <v>1.059260071054831</v>
+        <v>1.044008712211683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050113969821969</v>
+        <v>1.007582045746343</v>
       </c>
       <c r="D9">
-        <v>1.048761997676939</v>
+        <v>1.022627996576705</v>
       </c>
       <c r="E9">
-        <v>1.056819594534166</v>
+        <v>1.018117831702024</v>
       </c>
       <c r="F9">
-        <v>1.066650842085205</v>
+        <v>1.017676951730665</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043457227138738</v>
+        <v>1.044971500536175</v>
       </c>
       <c r="J9">
-        <v>1.055826264655547</v>
+        <v>1.032869874397893</v>
       </c>
       <c r="K9">
-        <v>1.051883498579565</v>
+        <v>1.035364316375667</v>
       </c>
       <c r="L9">
-        <v>1.059915719071788</v>
+        <v>1.030923643064028</v>
       </c>
       <c r="M9">
-        <v>1.069716571201676</v>
+        <v>1.030489598288901</v>
       </c>
       <c r="N9">
-        <v>1.057325659056323</v>
+        <v>1.034336668091369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048285550140683</v>
+        <v>0.9977055184893255</v>
       </c>
       <c r="D10">
-        <v>1.047404837029391</v>
+        <v>1.015440766601192</v>
       </c>
       <c r="E10">
-        <v>1.055082576239466</v>
+        <v>1.009246796933343</v>
       </c>
       <c r="F10">
-        <v>1.064532606785848</v>
+        <v>1.007091883556252</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042939302729622</v>
+        <v>1.041608580919113</v>
       </c>
       <c r="J10">
-        <v>1.054533895291822</v>
+        <v>1.026010467857035</v>
       </c>
       <c r="K10">
-        <v>1.05081017630435</v>
+        <v>1.029536719554807</v>
       </c>
       <c r="L10">
-        <v>1.05846135240616</v>
+        <v>1.023451080812131</v>
       </c>
       <c r="M10">
-        <v>1.067879266235344</v>
+        <v>1.021334261656853</v>
       </c>
       <c r="N10">
-        <v>1.056031454379866</v>
+        <v>1.027467520406438</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047493354695147</v>
+        <v>0.9932729223582811</v>
       </c>
       <c r="D11">
-        <v>1.046816728360977</v>
+        <v>1.012221794216922</v>
       </c>
       <c r="E11">
-        <v>1.054330430323906</v>
+        <v>1.005274502431954</v>
       </c>
       <c r="F11">
-        <v>1.063615916473064</v>
+        <v>1.002352711159288</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042713353882109</v>
+        <v>1.040088202350403</v>
       </c>
       <c r="J11">
-        <v>1.053973179682862</v>
+        <v>1.022928258375897</v>
       </c>
       <c r="K11">
-        <v>1.050344190305014</v>
+        <v>1.026916848190437</v>
       </c>
       <c r="L11">
-        <v>1.057830884098362</v>
+        <v>1.020097630176525</v>
       </c>
       <c r="M11">
-        <v>1.067083574329227</v>
+        <v>1.017230394766112</v>
       </c>
       <c r="N11">
-        <v>1.055469942490425</v>
+        <v>1.024380933834302</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047199023801694</v>
+        <v>0.991601279604456</v>
       </c>
       <c r="D12">
-        <v>1.046598210131615</v>
+        <v>1.011008961157948</v>
       </c>
       <c r="E12">
-        <v>1.054051047116832</v>
+        <v>1.003777880310337</v>
       </c>
       <c r="F12">
-        <v>1.063275492134962</v>
+        <v>1.000567179136211</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042629172735515</v>
+        <v>1.039513227096002</v>
       </c>
       <c r="J12">
-        <v>1.053764736472306</v>
+        <v>1.021765391261412</v>
       </c>
       <c r="K12">
-        <v>1.050170916378651</v>
+        <v>1.025928243045346</v>
       </c>
       <c r="L12">
-        <v>1.057596590477187</v>
+        <v>1.018833058249828</v>
       </c>
       <c r="M12">
-        <v>1.066787997482015</v>
+        <v>1.015683520950227</v>
       </c>
       <c r="N12">
-        <v>1.055261203266601</v>
+        <v>1.023216415315132</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047262162176364</v>
+        <v>0.9919610219329289</v>
       </c>
       <c r="D13">
-        <v>1.046645086148847</v>
+        <v>1.011269913629495</v>
       </c>
       <c r="E13">
-        <v>1.054110975916907</v>
+        <v>1.004099891932912</v>
       </c>
       <c r="F13">
-        <v>1.063348510950394</v>
+        <v>1.000951352499486</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04264724136755</v>
+        <v>1.039637034704986</v>
       </c>
       <c r="J13">
-        <v>1.053809455896681</v>
+        <v>1.022015664558023</v>
       </c>
       <c r="K13">
-        <v>1.050208092658125</v>
+        <v>1.026141018827981</v>
       </c>
       <c r="L13">
-        <v>1.05764685224306</v>
+        <v>1.019105192297742</v>
       </c>
       <c r="M13">
-        <v>1.066851400728212</v>
+        <v>1.016016376031775</v>
       </c>
       <c r="N13">
-        <v>1.055305986197689</v>
+        <v>1.023467044028531</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0474690267403</v>
+        <v>0.993135268183479</v>
       </c>
       <c r="D14">
-        <v>1.046798666978861</v>
+        <v>1.012121897979686</v>
       </c>
       <c r="E14">
-        <v>1.054307336487411</v>
+        <v>1.005151231165192</v>
       </c>
       <c r="F14">
-        <v>1.063587775372001</v>
+        <v>1.002205643418589</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042706400621163</v>
+        <v>1.040040887213471</v>
       </c>
       <c r="J14">
-        <v>1.053955953147607</v>
+        <v>1.022832509691377</v>
       </c>
       <c r="K14">
-        <v>1.05032987122865</v>
+        <v>1.026835451287542</v>
       </c>
       <c r="L14">
-        <v>1.057811519560941</v>
+        <v>1.019993494556702</v>
       </c>
       <c r="M14">
-        <v>1.067059142306232</v>
+        <v>1.017102998491937</v>
       </c>
       <c r="N14">
-        <v>1.055452691491514</v>
+        <v>1.024285049175667</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047596472915044</v>
+        <v>0.9938553685271602</v>
       </c>
       <c r="D15">
-        <v>1.046893284092051</v>
+        <v>1.012644524352941</v>
       </c>
       <c r="E15">
-        <v>1.054428320297825</v>
+        <v>1.005796149861964</v>
       </c>
       <c r="F15">
-        <v>1.063735203967766</v>
+        <v>1.002975058694919</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042742816954481</v>
+        <v>1.040288338641903</v>
       </c>
       <c r="J15">
-        <v>1.054046192569486</v>
+        <v>1.023333373381372</v>
       </c>
       <c r="K15">
-        <v>1.0504048783474</v>
+        <v>1.027261233662973</v>
       </c>
       <c r="L15">
-        <v>1.057912961951841</v>
+        <v>1.020538256074828</v>
       </c>
       <c r="M15">
-        <v>1.06718713583508</v>
+        <v>1.017769470085153</v>
       </c>
       <c r="N15">
-        <v>1.055543059063723</v>
+        <v>1.024786624149552</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048338115268981</v>
+        <v>0.9979962637580377</v>
       </c>
       <c r="D16">
-        <v>1.047443858316119</v>
+        <v>1.015652055547716</v>
       </c>
       <c r="E16">
-        <v>1.055132493408695</v>
+        <v>1.009507543407961</v>
       </c>
       <c r="F16">
-        <v>1.064593455210585</v>
+        <v>1.00740297611439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042954262671012</v>
+        <v>1.041708081325455</v>
       </c>
       <c r="J16">
-        <v>1.054571084599022</v>
+        <v>1.026212566514964</v>
       </c>
       <c r="K16">
-        <v>1.050841076241675</v>
+        <v>1.029708478067568</v>
       </c>
       <c r="L16">
-        <v>1.058503179235222</v>
+        <v>1.023671052308685</v>
       </c>
       <c r="M16">
-        <v>1.067932070811341</v>
+        <v>1.021603552826257</v>
       </c>
       <c r="N16">
-        <v>1.056068696500146</v>
+        <v>1.027669906067642</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04880319829997</v>
+        <v>1.000550795776634</v>
       </c>
       <c r="D17">
-        <v>1.047789098023455</v>
+        <v>1.017509241341876</v>
       </c>
       <c r="E17">
-        <v>1.055574199781685</v>
+        <v>1.011799533730421</v>
       </c>
       <c r="F17">
-        <v>1.065131950666907</v>
+        <v>1.010137578116754</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043086445621107</v>
+        <v>1.042581056609299</v>
       </c>
       <c r="J17">
-        <v>1.054900036937882</v>
+        <v>1.027987824157745</v>
       </c>
       <c r="K17">
-        <v>1.051114361456099</v>
+        <v>1.031217080392444</v>
       </c>
       <c r="L17">
-        <v>1.058873213491299</v>
+        <v>1.025603789787965</v>
       </c>
       <c r="M17">
-        <v>1.068399313215788</v>
+        <v>1.023970163367687</v>
       </c>
       <c r="N17">
-        <v>1.056398115989059</v>
+        <v>1.029447684779901</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049074427442299</v>
+        <v>1.002025886245669</v>
       </c>
       <c r="D18">
-        <v>1.047990427234811</v>
+        <v>1.01858227680503</v>
       </c>
       <c r="E18">
-        <v>1.055831839229621</v>
+        <v>1.013123870243519</v>
       </c>
       <c r="F18">
-        <v>1.065446096272931</v>
+        <v>1.011717725618011</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04316338324669</v>
+        <v>1.043084095640415</v>
       </c>
       <c r="J18">
-        <v>1.05509180216513</v>
+        <v>1.029012575910304</v>
       </c>
       <c r="K18">
-        <v>1.051273645461022</v>
+        <v>1.032087783794532</v>
       </c>
       <c r="L18">
-        <v>1.059088979059296</v>
+        <v>1.026719849586064</v>
       </c>
       <c r="M18">
-        <v>1.068671835739063</v>
+        <v>1.025337215439491</v>
       </c>
       <c r="N18">
-        <v>1.056590153544925</v>
+        <v>1.030473891797489</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049166901856676</v>
+        <v>1.002526372649337</v>
       </c>
       <c r="D19">
-        <v>1.048059067984361</v>
+        <v>1.018946451061781</v>
       </c>
       <c r="E19">
-        <v>1.055919687611959</v>
+        <v>1.013573348884452</v>
       </c>
       <c r="F19">
-        <v>1.065553220425954</v>
+        <v>1.012254039409379</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043189589453945</v>
+        <v>1.04325459240872</v>
       </c>
       <c r="J19">
-        <v>1.055157171031313</v>
+        <v>1.029360204017427</v>
       </c>
       <c r="K19">
-        <v>1.051327937101806</v>
+        <v>1.032383132132172</v>
       </c>
       <c r="L19">
-        <v>1.059162537865915</v>
+        <v>1.02709852117999</v>
       </c>
       <c r="M19">
-        <v>1.068764756903347</v>
+        <v>1.025801124816811</v>
       </c>
       <c r="N19">
-        <v>1.056655615242396</v>
+        <v>1.030822013576397</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048753304059604</v>
+        <v>1.000278274465614</v>
       </c>
       <c r="D20">
-        <v>1.047752061552738</v>
+        <v>1.017311048662589</v>
       </c>
       <c r="E20">
-        <v>1.05552680892357</v>
+        <v>1.011554932188255</v>
       </c>
       <c r="F20">
-        <v>1.065074170016051</v>
+        <v>1.00984573471687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043072280449434</v>
+        <v>1.042488035120704</v>
       </c>
       <c r="J20">
-        <v>1.054864754554459</v>
+        <v>1.027798473311823</v>
       </c>
       <c r="K20">
-        <v>1.051085052818088</v>
+        <v>1.031056183987345</v>
       </c>
       <c r="L20">
-        <v>1.058833519482864</v>
+        <v>1.025397600085285</v>
       </c>
       <c r="M20">
-        <v>1.068349183792849</v>
+        <v>1.023717640217307</v>
       </c>
       <c r="N20">
-        <v>1.056362783500604</v>
+        <v>1.029258065034058</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047408112351227</v>
+        <v>0.9927901918597674</v>
       </c>
       <c r="D21">
-        <v>1.046753443150924</v>
+        <v>1.011871493062851</v>
       </c>
       <c r="E21">
-        <v>1.054249513284008</v>
+        <v>1.00484223368096</v>
       </c>
       <c r="F21">
-        <v>1.063517315908299</v>
+        <v>1.001836996698933</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042688986703699</v>
+        <v>1.03992225040122</v>
       </c>
       <c r="J21">
-        <v>1.053912818021399</v>
+        <v>1.022592475891691</v>
       </c>
       <c r="K21">
-        <v>1.050294015617876</v>
+        <v>1.026631393521052</v>
       </c>
       <c r="L21">
-        <v>1.057763032180234</v>
+        <v>1.019732445521251</v>
       </c>
       <c r="M21">
-        <v>1.066997968200658</v>
+        <v>1.016783649991379</v>
       </c>
       <c r="N21">
-        <v>1.055409495108479</v>
+        <v>1.024044674500454</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046561906220734</v>
+        <v>0.9879354648568951</v>
       </c>
       <c r="D22">
-        <v>1.046125175395483</v>
+        <v>1.008351496729994</v>
       </c>
       <c r="E22">
-        <v>1.053446410113629</v>
+        <v>1.000498592798188</v>
       </c>
       <c r="F22">
-        <v>1.062538893980068</v>
+        <v>0.9966548101907984</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042446526647155</v>
+        <v>1.038249463941441</v>
       </c>
       <c r="J22">
-        <v>1.05331332227867</v>
+        <v>1.019214469801377</v>
       </c>
       <c r="K22">
-        <v>1.049795582559542</v>
+        <v>1.023759304691528</v>
       </c>
       <c r="L22">
-        <v>1.057089339224466</v>
+        <v>1.016060178934515</v>
       </c>
       <c r="M22">
-        <v>1.066148280059126</v>
+        <v>1.012292828502808</v>
       </c>
       <c r="N22">
-        <v>1.054809148013033</v>
+        <v>1.020661871254029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04701053775426</v>
+        <v>0.9905235785704893</v>
       </c>
       <c r="D23">
-        <v>1.046458269962526</v>
+        <v>1.010227384853295</v>
       </c>
       <c r="E23">
-        <v>1.053872152517017</v>
+        <v>1.002813426700474</v>
       </c>
       <c r="F23">
-        <v>1.063057533750206</v>
+        <v>0.9994165429864581</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042575198686522</v>
+        <v>1.039142099784279</v>
       </c>
       <c r="J23">
-        <v>1.053631219289676</v>
+        <v>1.021015566757704</v>
       </c>
       <c r="K23">
-        <v>1.050059913779449</v>
+        <v>1.025290738875415</v>
       </c>
       <c r="L23">
-        <v>1.057446537395383</v>
+        <v>1.018017829819128</v>
       </c>
       <c r="M23">
-        <v>1.066598728498346</v>
+        <v>1.014686487422014</v>
       </c>
       <c r="N23">
-        <v>1.055127496474258</v>
+        <v>1.022465525974623</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048775849260403</v>
+        <v>1.000401461108887</v>
       </c>
       <c r="D24">
-        <v>1.047768796873001</v>
+        <v>1.017400634933961</v>
       </c>
       <c r="E24">
-        <v>1.055548222813173</v>
+        <v>1.011665495750587</v>
       </c>
       <c r="F24">
-        <v>1.065100278448853</v>
+        <v>1.00997765209901</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043078681582528</v>
+        <v>1.042530086497174</v>
       </c>
       <c r="J24">
-        <v>1.054880697475322</v>
+        <v>1.027884065869085</v>
       </c>
       <c r="K24">
-        <v>1.051098296496256</v>
+        <v>1.031128914625942</v>
       </c>
       <c r="L24">
-        <v>1.058851455709854</v>
+        <v>1.02549080308164</v>
       </c>
       <c r="M24">
-        <v>1.068371835157934</v>
+        <v>1.023831785705877</v>
       </c>
       <c r="N24">
-        <v>1.056378749062244</v>
+        <v>1.02934377914257</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050822602260819</v>
+        <v>1.0112835545747</v>
       </c>
       <c r="D25">
-        <v>1.049287896485708</v>
+        <v>1.025326609068663</v>
       </c>
       <c r="E25">
-        <v>1.057493199760286</v>
+        <v>1.021449823810036</v>
       </c>
       <c r="F25">
-        <v>1.067472753617938</v>
+        <v>1.021653719054925</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043656575035095</v>
+        <v>1.046221948595451</v>
       </c>
       <c r="J25">
-        <v>1.056326451108448</v>
+        <v>1.035437058966248</v>
       </c>
       <c r="K25">
-        <v>1.052298631850313</v>
+        <v>1.037544084269411</v>
       </c>
       <c r="L25">
-        <v>1.060479078605774</v>
+        <v>1.033724040279972</v>
       </c>
       <c r="M25">
-        <v>1.070428961840196</v>
+        <v>1.033924937658452</v>
       </c>
       <c r="N25">
-        <v>1.05782655583136</v>
+        <v>1.03690749835627</v>
       </c>
     </row>
   </sheetData>
